--- a/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint5.xlsx
+++ b/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Documents\9. Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Document\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA291060-456C-4FC5-9B2A-5CB220768E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6107E-D036-461F-8E14-7CD32D1C575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32F5E0D2-360C-4CCD-AC45-3C3204581BB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32F5E0D2-360C-4CCD-AC45-3C3204581BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey on Mobile" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Module Code</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>TC01</t>
-  </si>
-  <si>
-    <t>Check survey</t>
   </si>
   <si>
     <t>TC02</t>
@@ -156,6 +153,27 @@
   </si>
   <si>
     <t>Submit survey to database and redirect to homepage</t>
+  </si>
+  <si>
+    <t>Check AI detection ability</t>
+  </si>
+  <si>
+    <t>Check AI detection ability &amp; declare empty photo</t>
+  </si>
+  <si>
+    <t>Check AI detection ability, declare empty photo and relevant information</t>
+  </si>
+  <si>
+    <t>Check AI detection ability &amp; declare empty relevant information</t>
+  </si>
+  <si>
+    <t>Check AI detection ability with a new craft village</t>
+  </si>
+  <si>
+    <t>Check AI detection ability with a new craft village &amp; declare empty name of craft village</t>
+  </si>
+  <si>
+    <t>Check AI detection ability with a new craft village &amp; declare empty description about craft village</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +266,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,58 +592,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D97F9A-D2F1-4754-B8FE-1B6F6C797CB7}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="5" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" customWidth="1"/>
+    <col min="4" max="5" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -637,7 +658,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -652,7 +673,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -661,7 +682,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -684,21 +705,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -707,21 +728,21 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -730,21 +751,21 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -753,21 +774,21 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -776,21 +797,21 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -799,21 +820,21 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -822,21 +843,21 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
